--- a/data/trans_dic/P1401-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1401-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005567654835517208</v>
+        <v>0.004410533261589088</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003447302297126888</v>
+        <v>0.003253698901749652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01113313367807162</v>
+        <v>0.01128235261681709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008857575211010488</v>
+        <v>0.008629073628790309</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01459390931484123</v>
+        <v>0.01392781857383479</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01729065621716541</v>
+        <v>0.0170783337352146</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00820860881557502</v>
+        <v>0.008165935188405036</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01010065810483665</v>
+        <v>0.01015059974382595</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01656945723613071</v>
+        <v>0.01645942882734431</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02080662411798941</v>
+        <v>0.02046272617682628</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01879783674624498</v>
+        <v>0.02066963913073602</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02904819481744027</v>
+        <v>0.0284247889837206</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02970000472845243</v>
+        <v>0.02815643940231605</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04198266369374896</v>
+        <v>0.04071937005218917</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03508884542757777</v>
+        <v>0.03360168589306611</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02091174949290498</v>
+        <v>0.02036613298442829</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02427469723994943</v>
+        <v>0.02484022929787323</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02849529189302487</v>
+        <v>0.02826542036231247</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.01149282900569694</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.02118563698600082</v>
+        <v>0.02118563698600083</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.003146013147780161</v>
+        <v>0.003135195035656279</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003078214086626947</v>
+        <v>0.003697755892286615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01316835160565772</v>
+        <v>0.01315976477583029</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01155784067747532</v>
+        <v>0.01154305215810068</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008832482038998106</v>
+        <v>0.008951979673345991</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01588023086161799</v>
+        <v>0.01622802218145548</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008631227645677281</v>
+        <v>0.008932881396782154</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.007538829785588438</v>
+        <v>0.007534184664820962</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01641495108543801</v>
+        <v>0.01629477855724915</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01740729254210398</v>
+        <v>0.01764300314148462</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01477953858762944</v>
+        <v>0.01516834413938935</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03077035658113982</v>
+        <v>0.0295803163871307</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02967737063907636</v>
+        <v>0.03120302699483928</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02517656262549995</v>
+        <v>0.02572444054915933</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0296660725060316</v>
+        <v>0.02990682182872254</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01918766804068373</v>
+        <v>0.01970272339592827</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01698287667760661</v>
+        <v>0.01738782909991041</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02703763875014787</v>
+        <v>0.02672251986860768</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004043805421195178</v>
+        <v>0.00391897831122965</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002292094397289764</v>
+        <v>0.002363583047508101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01146258566093545</v>
+        <v>0.01188276776508956</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009224472874817731</v>
+        <v>0.009442991514955477</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006617279139438687</v>
+        <v>0.006196339498676833</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.009346655044389357</v>
+        <v>0.009005970775195549</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.007831924200397787</v>
+        <v>0.007456926884849349</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005697490256489888</v>
+        <v>0.005359862684236606</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01256050211703048</v>
+        <v>0.01214293140003112</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01841883155626082</v>
+        <v>0.0187014013244721</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01410556732170723</v>
+        <v>0.0136279745442243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0306045743445585</v>
+        <v>0.03014298777723924</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03199597849209855</v>
+        <v>0.03120299925687851</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02465022883977352</v>
+        <v>0.02347621383678634</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02282016601659468</v>
+        <v>0.02257320614232728</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02011151478340855</v>
+        <v>0.02065936267194708</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01647931549543307</v>
+        <v>0.0156863228794814</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02365854569643273</v>
+        <v>0.02398267830528115</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.02023799615194857</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.02674040259685727</v>
+        <v>0.02674040259685728</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01055276566337906</v>
+        <v>0.01058593341524953</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006659900785317126</v>
+        <v>0.006655570457198323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01827541118237152</v>
+        <v>0.01690433651561679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01664960193124865</v>
+        <v>0.01689768803032179</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01843622199125169</v>
+        <v>0.017787203551144</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02090798797194026</v>
+        <v>0.02105368187498582</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01603685559445565</v>
+        <v>0.01575176203787329</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01440616266341383</v>
+        <v>0.01441242752858901</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02136059288046838</v>
+        <v>0.02174346201197712</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02851088270697949</v>
+        <v>0.02990232878730065</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02045561160995451</v>
+        <v>0.02037951589259765</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03691610319786599</v>
+        <v>0.03645201302784745</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03823162449018992</v>
+        <v>0.03784534165596708</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04030731125902021</v>
+        <v>0.03999695502063466</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03593546421340212</v>
+        <v>0.03562509399364817</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03019586189477851</v>
+        <v>0.02940973787198099</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02788449735631973</v>
+        <v>0.02778315053701949</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03279819085750293</v>
+        <v>0.03319530656250738</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.008759891864754007</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0211367975075312</v>
+        <v>0.02113679750753121</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.02014494967712189</v>
@@ -1100,7 +1100,7 @@
         <v>0.01453899265530997</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.02196403072294269</v>
+        <v>0.02196403072294268</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008059799138195253</v>
+        <v>0.008098023121163835</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005875129054632713</v>
+        <v>0.006012663502166194</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01672744122566788</v>
+        <v>0.01712862388300899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01563507143042243</v>
+        <v>0.01555557253733681</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01552466136360415</v>
+        <v>0.0155609749644652</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01960948639670532</v>
+        <v>0.01940096895507384</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01301943790997223</v>
+        <v>0.01306309214784829</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01164178854685763</v>
+        <v>0.01181961781437155</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01888243783869211</v>
+        <v>0.01929137887073013</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01617597474595156</v>
+        <v>0.01564549599607374</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01213118422083618</v>
+        <v>0.01233062206713025</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02544391999231321</v>
+        <v>0.02591787712276243</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02557017915098592</v>
+        <v>0.02571390034372019</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02578182698676238</v>
+        <v>0.02547279040303148</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02718458507051721</v>
+        <v>0.02728888186621466</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01918661199189271</v>
+        <v>0.01932570415121194</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01754400291887724</v>
+        <v>0.01783899248062969</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02481949213045919</v>
+        <v>0.02519666334247721</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3917</v>
+        <v>3103</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2326</v>
+        <v>2196</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7690</v>
+        <v>7793</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6174</v>
+        <v>6015</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9819</v>
+        <v>9371</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12669</v>
+        <v>12514</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11496</v>
+        <v>11437</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13612</v>
+        <v>13679</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>23585</v>
+        <v>23429</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14637</v>
+        <v>14395</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12685</v>
+        <v>13948</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20064</v>
+        <v>19633</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20702</v>
+        <v>19626</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28248</v>
+        <v>27398</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25710</v>
+        <v>24621</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29287</v>
+        <v>28523</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32714</v>
+        <v>33476</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40561</v>
+        <v>40234</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3202</v>
+        <v>3191</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3147</v>
+        <v>3781</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13813</v>
+        <v>13804</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11893</v>
+        <v>11877</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9212</v>
+        <v>9336</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>16988</v>
+        <v>17360</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17667</v>
+        <v>18285</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15570</v>
+        <v>15561</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34778</v>
+        <v>34524</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17720</v>
+        <v>17960</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15111</v>
+        <v>15509</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32276</v>
+        <v>31027</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30537</v>
+        <v>32107</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26257</v>
+        <v>26828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31736</v>
+        <v>31994</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>39276</v>
+        <v>40330</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>35075</v>
+        <v>35912</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>57285</v>
+        <v>56617</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3064</v>
+        <v>2969</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1741</v>
+        <v>1795</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9149</v>
+        <v>9485</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7169</v>
+        <v>7339</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5195</v>
+        <v>4864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7559</v>
+        <v>7284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12020</v>
+        <v>11445</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8800</v>
+        <v>8279</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>20184</v>
+        <v>19513</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13955</v>
+        <v>14169</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10714</v>
+        <v>10351</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24429</v>
+        <v>24060</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24866</v>
+        <v>24250</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19351</v>
+        <v>18429</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18456</v>
+        <v>18256</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30867</v>
+        <v>31708</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25453</v>
+        <v>24229</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38018</v>
+        <v>38539</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10001</v>
+        <v>10033</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6244</v>
+        <v>6240</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18041</v>
+        <v>16688</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17514</v>
+        <v>17775</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19243</v>
+        <v>18566</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23367</v>
+        <v>23530</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32068</v>
+        <v>31498</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>28544</v>
+        <v>28556</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>44960</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27021</v>
+        <v>28340</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19179</v>
+        <v>19107</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36443</v>
+        <v>35985</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40216</v>
+        <v>39810</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>42072</v>
+        <v>41748</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40163</v>
+        <v>39816</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>60381</v>
+        <v>58809</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>55249</v>
+        <v>55048</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>69034</v>
+        <v>69870</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>27619</v>
+        <v>27750</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19942</v>
+        <v>20409</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>58964</v>
+        <v>60378</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>55584</v>
+        <v>55302</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55028</v>
+        <v>55157</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>73122</v>
+        <v>72344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>90900</v>
+        <v>91205</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>80781</v>
+        <v>82015</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>136971</v>
+        <v>139938</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>55431</v>
+        <v>53614</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>41177</v>
+        <v>41854</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>89690</v>
+        <v>91361</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>90904</v>
+        <v>91415</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>91385</v>
+        <v>90289</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>101369</v>
+        <v>101757</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>133959</v>
+        <v>134930</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>121736</v>
+        <v>123783</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>180038</v>
+        <v>182774</v>
       </c>
     </row>
     <row r="24">
